--- a/config/test.xlsx
+++ b/config/test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Skill" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillParam" sheetId="2" r:id="rId2"/>
+    <sheet name="TestNormal" sheetId="1" r:id="rId1"/>
+    <sheet name="TestParam" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>cs</t>
   </si>
@@ -45,6 +45,12 @@
     <t>animationId</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>这表是普通表模板</t>
+  </si>
+  <si>
     <t>技能id</t>
   </si>
   <si>
@@ -57,12 +63,21 @@
     <t>动画id</t>
   </si>
   <si>
+    <t>策划描述</t>
+  </si>
+  <si>
     <t>ani_30001</t>
   </si>
   <si>
+    <t>主角1技能</t>
+  </si>
+  <si>
     <t>ani_30002</t>
   </si>
   <si>
+    <t>主角2技能</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -72,9 +87,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>NPC_NAME</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
   </si>
   <si>
     <t>默认npc名字</t>
+  </si>
+  <si>
+    <t>这表是参数表模板</t>
   </si>
   <si>
     <t>MAX_LEVEL</t>
@@ -164,9 +179,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -192,29 +207,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,22 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +260,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,38 +321,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,31 +365,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,151 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,16 +574,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -601,8 +616,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,34 +650,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -664,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,18 +1179,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
@@ -1206,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1219,22 +1235,31 @@
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:5">
       <c r="A5" s="2">
         <v>10001</v>
       </c>
@@ -1245,10 +1270,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:5">
       <c r="A6" s="2">
         <v>10002</v>
       </c>
@@ -1259,7 +1287,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1272,18 +1303,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1299,35 +1331,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1336,54 +1371,54 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>21000000000</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>1.1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1.2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1392,49 +1427,49 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
